--- a/data/students/qualitative_analysis.xlsx
+++ b/data/students/qualitative_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\TOCHI-2023\data\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57C83A0-63D9-409F-BCE8-17270B0AB876}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306463E0-5927-42AE-9644-3A508647AED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17243" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17243" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Analysis (Easy)" sheetId="8" r:id="rId1"/>
@@ -10391,8 +10391,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:D54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:7" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>148</v>
       </c>
@@ -19044,8 +19044,8 @@
   </sheetPr>
   <dimension ref="A1:C1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19680,7 +19680,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="102" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="89.25" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>147</v>
       </c>
@@ -25837,7 +25837,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>141</v>
       </c>
@@ -29105,7 +29105,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>136</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>136</v>
       </c>
@@ -32862,7 +32862,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>136</v>
       </c>
